--- a/xlsx/BMW 7系列_intext.xlsx
+++ b/xlsx/BMW 7系列_intext.xlsx
@@ -29,7 +29,7 @@
     <t>BMW</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_BMW 7系列</t>
+    <t>政策_政策_混合动力车辆_BMW 7系列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%8A%A0%E9%81%94</t>
   </si>
   <si>
-    <t>雅加達</t>
+    <t>雅加达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%81%E6%88%88%E5%B0%94%E8%8A%AC</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E8%BB%8A</t>
   </si>
   <si>
-    <t>標準車</t>
+    <t>标准车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E5%8D%8E%E8%BD%A6</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7Panamera</t>
   </si>
   <si>
-    <t>保時捷Panamera</t>
+    <t>保时捷Panamera</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E8%BE%89%E8%85%BE</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E9%8E%96%E6%AD%BB%E7%85%9E%E8%BB%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>防鎖死煞車系統</t>
+    <t>防锁死煞车系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E6%B0%A3%E5%9B%8A</t>
   </si>
   <si>
-    <t>安全氣囊</t>
+    <t>安全气囊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/V8%E5%BC%95%E6%93%8E</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%BA%A7%E6%95%9E%E7%AF%B7%E8%BB%8A</t>
   </si>
   <si>
-    <t>雙座敞篷車</t>
+    <t>双座敞篷车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW_Z</t>
